--- a/ocms/target/test-classes/TestData/SendFaxData.xlsx
+++ b/ocms/target/test-classes/TestData/SendFaxData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L8"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>FaxLine</t>
   </si>
@@ -57,9 +57,6 @@
   where Number='4444';</t>
   </si>
   <si>
-    <t>22222</t>
-  </si>
-  <si>
     <t>20000</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>samplenew.pdf</t>
-  </si>
-  <si>
-    <t>4000</t>
   </si>
   <si>
     <t>Delete FROM [Product_OCM].[dbo].[FaxScheduler]
@@ -84,6 +78,18 @@
   </si>
   <si>
     <t>55555</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>805013440</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>1000121</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +468,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -477,15 +483,15 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -499,10 +505,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -511,15 +517,15 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -533,10 +539,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -578,7 +584,7 @@
     </row>
     <row r="3" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
